--- a/products/冲调饮品/洋酒/红酒/费尔南多.xlsx
+++ b/products/冲调饮品/洋酒/红酒/费尔南多.xlsx
@@ -285,15 +285,15 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8041237113402"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.9175257731959"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.639175257732"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0309278350515"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7783505154639"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.5927835051546"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.08247422680412"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +528,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -561,56 +561,52 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="D26" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="D27" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="D28" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="D29" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
   </sheetData>
@@ -637,7 +633,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.08247422680412"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -663,7 +659,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.08247422680412"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
